--- a/biology/Zoologie/Holozoa/Holozoa.xlsx
+++ b/biology/Zoologie/Holozoa/Holozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holozoa, en français Holozoaires, sont un clade monophylétique d'eucaryotes unicontes comportant les Filozoaires, les Mésomycétozoaires et les Corallochytrea. Le groupe des Filozoaires comprend notamment les Métazoaires (groupe qui désigne les animaux au sens courant du terme).
-C'est le groupe frère des Holomycètes (Holomycota) qui contient notamment les champignons vrais (Fungi)[2].
+C'est le groupe frère des Holomycètes (Holomycota) qui contient notamment les champignons vrais (Fungi).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade Holozoa a été créé en 2002 par Bernd Franz Lang (d), Charles J. O'Kelly (d), Thomas A. Nerad (d), Michael W. Gray (d) et Gertraud Burger (d)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade Holozoa a été créé en 2002 par Bernd Franz Lang (d), Charles J. O'Kelly (d), Thomas A. Nerad (d), Michael W. Gray (d) et Gertraud Burger (d).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste phylogénétique se décline schématiquement ainsi :
 Opisthokonta
@@ -559,7 +575,7 @@
 Choanobionta
 Choanomonada
 Metazoa
-L'arbre phylogénétique basé sur une analyse multigénique de 2011 est illustré ci-dessous. Il montre les divergences des divers clades[4] :
+L'arbre phylogénétique basé sur une analyse multigénique de 2011 est illustré ci-dessous. Il montre les divergences des divers clades :
 L'hypothèse alternative est le clade dit des Teretosporea (en). Il s'agit d'un clade basal proposé des Holozoa, dans lequel Ichthyosporea et Corallochytrium ont émergé avec les Filozoa comme clade frère.
 </t>
         </is>
